--- a/lab3.xlsx
+++ b/lab3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\ENGG103 Lab 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE542F0-9913-48BC-9FD7-EE7E3BADB9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3942C0-A585-4C3E-9D66-41320B5F3ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{406636DF-454D-475F-8625-AD756B3B9907}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{406636DF-454D-475F-8625-AD756B3B9907}"/>
   </bookViews>
   <sheets>
     <sheet name="1040" sheetId="1" r:id="rId1"/>
@@ -62,12 +62,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="182" formatCode="0.0000000000000000000"/>
-    <numFmt numFmtId="183" formatCode="0.00000000000000000000"/>
-    <numFmt numFmtId="184" formatCode="0.000000000000000000000"/>
-    <numFmt numFmtId="185" formatCode="0.0000000000000000000000"/>
-    <numFmt numFmtId="187" formatCode="0.000000000000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000000000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -100,130 +100,17 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -535,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8907A255-ECFD-4141-811B-5809EF2CCB30}">
   <dimension ref="A1:E258"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -39744,7 +39631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC15918-5152-4605-A8CF-A9D00D08FB04}">
   <dimension ref="A1:E274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -45234,5 +45121,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>